--- a/22.- TRS.xlsx
+++ b/22.- TRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880EDD1-CD44-0A47-8ED8-6E4B27DC9ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8781C8-40E8-3A47-AA22-EAD435711A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{406D6790-6DA7-2D49-A8A7-6AA6B02AC57D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{406D6790-6DA7-2D49-A8A7-6AA6B02AC57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Teoría" sheetId="1" r:id="rId1"/>
@@ -293,22 +293,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2380,7 +2379,7 @@
   <dimension ref="B6:J30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:K30"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2411,28 +2410,28 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I19" t="s">
@@ -2444,19 +2443,19 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>35000</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>98.75</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>0.06</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f>C20*D20</f>
         <v>3456250</v>
       </c>
@@ -2469,37 +2468,37 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>45000</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>101.5</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f t="shared" ref="F21:F22" si="0">C21*D21</f>
         <v>4567500</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>50000</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>97.6</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>0.08</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>4880000</v>
       </c>
@@ -2512,11 +2511,11 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="8">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7">
         <f>SUM(F20:F22)</f>
         <v>12903750</v>
       </c>
@@ -2535,124 +2534,124 @@
       <c r="I24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="8">
         <f>J22+J23</f>
         <v>-48750</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="8">
         <f>F23*0.04/2</f>
         <v>258075</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>35000</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>96.4</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>0.06</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <f>C27*D27</f>
         <v>3374000</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f>100*E27/2*C27</f>
         <v>105000</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>45000</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>97.3</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f t="shared" ref="F28:F29" si="1">C28*D28</f>
         <v>4378500</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <f t="shared" ref="G28:G29" si="2">100*E28/2*C28</f>
         <v>157500.00000000003</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>50000</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>92.8</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>0.08</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f t="shared" si="1"/>
         <v>4640000</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="8">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7">
         <f>SUM(F27:F29)</f>
         <v>12392500</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <f>SUM(G27:G29)</f>
         <v>462500</v>
       </c>
@@ -2672,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFDFC25-0E37-3C41-813D-FC536B9C64EE}">
   <dimension ref="B15:J27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -2686,28 +2685,28 @@
   </cols>
   <sheetData>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I16" t="s">
@@ -2719,19 +2718,19 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>40000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>106.83</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f>C17*D17</f>
         <v>4273200</v>
       </c>
@@ -2744,37 +2743,37 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>50000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>101.45</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" ref="F18:F19" si="0">C18*D18</f>
         <v>5072500</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>30000</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>98.36</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>2950800</v>
       </c>
@@ -2787,11 +2786,11 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7">
         <f>SUM(F17:F19)</f>
         <v>12296500</v>
       </c>
@@ -2810,124 +2809,124 @@
       <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="8">
         <f>J19+J20</f>
         <v>-6250</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="8">
         <f>F20*0.0645/4</f>
         <v>198281.0625</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>40000</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>104.27</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>C24*D24</f>
         <v>4170800</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f>100*E24/4*C24</f>
         <v>65000</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>50000</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>100.67</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f t="shared" ref="F25:F26" si="1">C25*D25</f>
         <v>5033500</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" ref="G25:G27" si="2">100*E25/4*C25</f>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:G26" si="2">100*E25/4*C25</f>
         <v>71875</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>30000</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>97.24</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f t="shared" si="1"/>
         <v>2917200</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <f t="shared" si="2"/>
         <v>31875</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7">
         <f>SUM(F24:F26)</f>
         <v>12121500</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f>SUM(G24:G26)</f>
         <v>168750</v>
       </c>
@@ -2947,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80682B61-D402-3E43-9310-24BA2F087960}">
   <dimension ref="B23:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2961,28 +2960,28 @@
   </cols>
   <sheetData>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I24" t="s">
@@ -2994,19 +2993,19 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>300000</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>109.88</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f>C25*D25</f>
         <v>32964000</v>
       </c>
@@ -3019,29 +3018,29 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>272000</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>115.33</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f t="shared" ref="F26" si="0">C26*D26</f>
         <v>31369760</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="12">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="10">
         <f>SUM(F25:F26)</f>
         <v>64333760</v>
       </c>
@@ -3054,11 +3053,11 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="7"/>
       <c r="G28" t="s">
         <v>32</v>
       </c>
@@ -3074,113 +3073,113 @@
       <c r="I29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <f>J27+J28</f>
         <v>-2840620</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="8">
         <f>F27*0.045/2</f>
         <v>1447509.5999999999</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>300000</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>105.33</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <f>C32*D32</f>
         <v>31599000</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <f>100*E32/2*C32</f>
         <v>349500</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>272000</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>106.87</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <f t="shared" ref="F33" si="1">C33*D33</f>
         <v>29068640</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <f>100*E33/2*C33</f>
         <v>476000.00000000006</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="12">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="10">
         <f>SUM(F32:F33)</f>
         <v>60667640</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <f>SUM(G32:G33)</f>
         <v>825500</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/22.- TRS.xlsx
+++ b/22.- TRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8781C8-40E8-3A47-AA22-EAD435711A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E4D7F-8B24-234A-A402-DBE4A23DB256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{406D6790-6DA7-2D49-A8A7-6AA6B02AC57D}"/>
   </bookViews>
@@ -2672,7 +2672,7 @@
   <dimension ref="B15:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/22.- TRS.xlsx
+++ b/22.- TRS.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E4D7F-8B24-234A-A402-DBE4A23DB256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9F3A87-C58B-4F46-8CDD-9D7FB18CA6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{406D6790-6DA7-2D49-A8A7-6AA6B02AC57D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{406D6790-6DA7-2D49-A8A7-6AA6B02AC57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Teoría" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio 1" sheetId="2" r:id="rId2"/>
     <sheet name="Ejercicio 2" sheetId="3" r:id="rId3"/>
     <sheet name="Ejercicio 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejercicio 2 (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
   <si>
     <t>TRS: Total Return Swap</t>
   </si>
@@ -1967,6 +1968,217 @@
             <a:t> bajo y pudiste cubrir tu pérdida e incluso ganar.</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A33EF3-D2AB-1543-80C0-496DE21603F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4683991" cy="2548082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ejercicio 2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Asume</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> que vendiste en corto </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>un portafolio integrado por 3 bonos, 40</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mil títulos del bono A con un precio actual de 106.83 y cupón del 6.5%, 50 mil títulos del bono B con un precio actual de 101.45 y cupón del 5.75%, por ultimo 30 mil títulos del bono C con un precio de 98.36 y un cupón del 4.25%. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dado que no te conviene</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> cerrar la posición en los bonos en este momento </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>decides intercambiar los flujos,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> recibiendo el</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> rendimiento TOTAL (variación en precio e intereses) de este portafolio de bonos a cambio de dar una tasa fija del 6.45%, intercambio (frecuencia) trimestral. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A los 3 meses de haber pactado este TRS los bonos tienen los siguiente precios el A $104.27, el B $100.67, y el C $97.24 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Calcula la cantidad a pagar o recibir.c-204,531.06npor ser protection seller</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="tx2"/>
             </a:solidFill>
@@ -2671,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFDFC25-0E37-3C41-813D-FC536B9C64EE}">
   <dimension ref="B15:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -3190,4 +3402,280 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BDD0B7-9BFE-D545-99E6-093B77C1D3EB}">
+  <dimension ref="B15:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3">
+        <f>J23-J21</f>
+        <v>514780.40000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>104000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>102.45</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <f>C17*D17</f>
+        <v>10654800</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="3">
+        <f>J21-J23</f>
+        <v>-514780.40000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5">
+        <v>96000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>98.75</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18:F19" si="0">C18*D18</f>
+        <v>9480000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5">
+        <v>85000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>101.3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="F19" s="7">
+        <f>C19*D19</f>
+        <v>8610500</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="3">
+        <f>F27-F20</f>
+        <v>-37300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7">
+        <f>SUM(F17:F19)</f>
+        <v>28745300</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="3">
+        <f>G27</f>
+        <v>1477200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="8">
+        <f>J19+J20</f>
+        <v>1439900</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="8">
+        <f>F20*0.068/1</f>
+        <v>1954680.4000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5">
+        <v>104000</v>
+      </c>
+      <c r="D24" s="4">
+        <v>101.9</v>
+      </c>
+      <c r="E24" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F24" s="7">
+        <f>C24*D24</f>
+        <v>10597600</v>
+      </c>
+      <c r="G24" s="7">
+        <f>100*E24/1*C24</f>
+        <v>468000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>96000</v>
+      </c>
+      <c r="D25" s="4">
+        <v>99.4</v>
+      </c>
+      <c r="E25" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" ref="F25:F26" si="1">C25*D25</f>
+        <v>9542400</v>
+      </c>
+      <c r="G25" s="7">
+        <f>100*E25/1*C25</f>
+        <v>499200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
+        <v>85000</v>
+      </c>
+      <c r="D26" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>8568000</v>
+      </c>
+      <c r="G26" s="7">
+        <f>100*E26/1*C26</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7">
+        <f>SUM(F24:F26)</f>
+        <v>28708000</v>
+      </c>
+      <c r="G27" s="7">
+        <f>SUM(G24:G26)</f>
+        <v>1477200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B22:F22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>